--- a/crm_notification/data/db_product.xlsx
+++ b/crm_notification/data/db_product.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\wandonam\automation\crm_notification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9D8F3-6D2C-41B7-94AE-AA1C07F80B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5F134B-E8DA-45DF-BC2A-938BC356CFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,23 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="필터 7" guid="{4796FD21-7869-4622-A46A-14D53E348CF4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 6" guid="{DCE1F932-9596-4540-B529-9B437061D5B5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 5" guid="{A3EAF737-ED01-46AC-9D07-F064957A7F7F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 4" guid="{2C61870E-BD53-4C7D-9D4E-102E24195F6D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 9" guid="{4E4D022B-6BE8-4076-85C7-ECA6F56FC6D9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 8" guid="{AE355F6B-CE0C-4DFD-9AEA-5A3887BC1D88}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 11" guid="{000FFDE7-9A29-4E33-B3EC-47FE9F9E5F96}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 12" guid="{A220521A-07F9-45C5-B616-6BC26D36B5E0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 13" guid="{E0CF77B6-17F9-414B-9F56-473A513E8707}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 14" guid="{57207604-1C3B-4B16-8AB1-929D6F56D82F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 10" guid="{0C300AE0-AE9F-4D89-BEEB-8CB62DF83784}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 3" guid="{2118B18D-A34A-4796-B40A-608AC4BFED56}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 15" guid="{525F9096-17DC-48B9-8DC1-3939B2193D00}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 2" guid="{2A0346B1-226E-427F-A4CA-1736E6FB9AF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 16" guid="{EB1B779E-83CA-495D-9362-1188BBAF35C3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 17" guid="{13130BBD-216A-41A9-B319-7E0E149F5767}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="필터 1" guid="{D00DDA49-A171-4B8A-BE0F-DDFB7303D552}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 17" guid="{13130BBD-216A-41A9-B319-7E0E149F5767}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 16" guid="{EB1B779E-83CA-495D-9362-1188BBAF35C3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 2" guid="{2A0346B1-226E-427F-A4CA-1736E6FB9AF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 15" guid="{525F9096-17DC-48B9-8DC1-3939B2193D00}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 3" guid="{2118B18D-A34A-4796-B40A-608AC4BFED56}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 10" guid="{0C300AE0-AE9F-4D89-BEEB-8CB62DF83784}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 14" guid="{57207604-1C3B-4B16-8AB1-929D6F56D82F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 13" guid="{E0CF77B6-17F9-414B-9F56-473A513E8707}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 12" guid="{A220521A-07F9-45C5-B616-6BC26D36B5E0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 11" guid="{000FFDE7-9A29-4E33-B3EC-47FE9F9E5F96}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 8" guid="{AE355F6B-CE0C-4DFD-9AEA-5A3887BC1D88}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 9" guid="{4E4D022B-6BE8-4076-85C7-ECA6F56FC6D9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 4" guid="{2C61870E-BD53-4C7D-9D4E-102E24195F6D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 5" guid="{A3EAF737-ED01-46AC-9D07-F064957A7F7F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 6" guid="{DCE1F932-9596-4540-B529-9B437061D5B5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 7" guid="{4796FD21-7869-4622-A46A-14D53E348CF4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="389">
   <si>
     <t>상품코드</t>
   </si>
@@ -1214,15 +1214,6 @@
     <t>https://myhabit.shop/surl/P/221</t>
   </si>
   <si>
-    <t>https://myhabit.shop/surl/P/12</t>
-  </si>
-  <si>
-    <t>https://myhabit.shop/surl/P/11</t>
-  </si>
-  <si>
-    <t>https://myhabit.shop/surl/P/21</t>
-  </si>
-  <si>
     <t>https://myhabit.shop/surl/P/252</t>
   </si>
   <si>
@@ -1230,6 +1221,24 @@
   </si>
   <si>
     <t>https://myhabit.shop/surl/P/98</t>
+  </si>
+  <si>
+    <t>https://arhee.co.kr/surl/P/11</t>
+  </si>
+  <si>
+    <t>https://arhee.co.kr/surl/P/11</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arhee.co.kr/surl/P/12</t>
+  </si>
+  <si>
+    <t>https://arhee.co.kr/surl/P/12</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arhee.co.kr/surl/P/21</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1237,7 +1246,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1854,7 +1863,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1872,7 +1881,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1890,7 +1899,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1908,7 +1917,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1926,7 +1935,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1944,7 +1953,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1962,7 +1971,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2010,7 +2019,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2034,7 +2043,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2358,8 +2367,8 @@
   <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R131" sqref="R131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8982,8 +8991,8 @@
       <c r="O122" s="5">
         <v>12</v>
       </c>
-      <c r="P122" s="7" t="s">
-        <v>381</v>
+      <c r="P122" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="Q122" s="8">
         <v>30</v>
@@ -9039,7 +9048,7 @@
         <v>12</v>
       </c>
       <c r="P123" s="13" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q123" s="14">
         <v>60</v>
@@ -9095,7 +9104,7 @@
         <v>12</v>
       </c>
       <c r="P124" s="19" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q124" s="20">
         <v>90</v>
@@ -9150,8 +9159,8 @@
       <c r="O125" s="5">
         <v>11</v>
       </c>
-      <c r="P125" s="7" t="s">
-        <v>382</v>
+      <c r="P125" s="19" t="s">
+        <v>385</v>
       </c>
       <c r="Q125" s="8">
         <v>30</v>
@@ -9207,7 +9216,7 @@
         <v>11</v>
       </c>
       <c r="P126" s="13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q126" s="14">
         <v>60</v>
@@ -9263,7 +9272,7 @@
         <v>11</v>
       </c>
       <c r="P127" s="19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q127" s="20">
         <v>90</v>
@@ -9316,8 +9325,8 @@
       <c r="O128" s="65">
         <v>21</v>
       </c>
-      <c r="P128" s="67" t="s">
-        <v>383</v>
+      <c r="P128" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="Q128" s="68">
         <v>30</v>
@@ -9579,7 +9588,7 @@
         <v>252</v>
       </c>
       <c r="P133" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q133" s="8">
         <v>30</v>
@@ -9633,7 +9642,7 @@
         <v>252</v>
       </c>
       <c r="P134" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q134" s="14">
         <v>60</v>
@@ -9687,7 +9696,7 @@
         <v>252</v>
       </c>
       <c r="P135" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q135" s="14">
         <v>90</v>
@@ -9741,7 +9750,7 @@
         <v>252</v>
       </c>
       <c r="P136" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q136" s="20">
         <v>120</v>
@@ -9795,7 +9804,7 @@
         <v>94</v>
       </c>
       <c r="P137" s="67" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q137" s="68">
         <v>120</v>
@@ -9847,7 +9856,7 @@
         <v>98</v>
       </c>
       <c r="P138" s="67" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q138" s="68">
         <v>120</v>
@@ -9872,8 +9881,11 @@
       <formula>ISEVEN($A2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P128" r:id="rId1" xr:uid="{87CC7BA1-EA34-485B-AEBA-D8471203CCF1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>